--- a/documentation/Threading Analysis - DDSSA.xlsx
+++ b/documentation/Threading Analysis - DDSSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A87514-8447-47E5-9A1D-2F57BC1D9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130C44B-D869-4C3E-8303-98BE7D4EC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9D00B310-DA03-4259-8009-DDC96E95BBE4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="22">
   <si>
     <t>Projects</t>
   </si>
@@ -65,6 +65,45 @@
   </si>
   <si>
     <t>Project Title</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -112,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,11 +159,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,18 +180,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2280,15 +2330,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40957</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2656,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF1AE8B-15D5-4AAB-8E3A-87B1F85A11BC}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,12 +2717,12 @@
     <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2685,21 +2735,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2722,7 +2772,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2">
@@ -2745,7 +2795,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -2841,11 +2891,304 @@
         <v>61.988221780000003</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="H10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9">
+        <v>12.837975139999941</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="9">
+        <v>13.310045840000001</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9">
+        <v>61.988221780000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6.1407099013225774E-2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.68271194289121306</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0.78205121552279555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9">
+        <v>12.852055699999999</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9">
+        <v>12.9315113</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="9">
+        <v>61.807760399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.1373104476946331</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1.5265903133557068</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1.7487196797953097</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.8854159046100577E-2</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2.3304779848314752</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="9">
+        <v>3.0580205185034108</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-2.9004110861904842</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="9">
+        <v>-2.1987104865845106</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="9">
+        <v>2.9320479765440055E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-0.15017142890443907</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.48342708153789798</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-0.72700937333999838</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.29082120000010114</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3.4196302999999997</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9">
+        <v>4.3266662999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9">
+        <v>12.684070499999899</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9">
+        <v>11.890037299999999</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="9">
+        <v>59.381199899999999</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9">
+        <v>12.974891700000001</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="9">
+        <v>15.309667599999999</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="9">
+        <v>63.707866199999998</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="9">
+        <v>64.189875699999703</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="9">
+        <v>66.550229200000004</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="9">
+        <v>309.94110890000002</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2854,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B887EC98-BF57-4A7D-8138-A570C58097D4}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,11 +3208,11 @@
     <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2883,21 +3226,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2920,7 +3263,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2">
@@ -2943,7 +3286,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -3039,11 +3382,296 @@
         <v>59.920816919999957</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="H10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9">
+        <v>12.81473076</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="9">
+        <v>12.27770189999994</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9">
+        <v>59.920816919999957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6.8238697277942045E-2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.18619888464564643</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1.4269666396657912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9">
+        <v>12.866881599999999</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9">
+        <v>12.183772399999899</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="9">
+        <v>59.699238699999903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.1525863658095083</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.41635336340230727</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="9">
+        <v>3.1907944079171568</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2.3282599030953081E-2</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.17335012321641374</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="9">
+        <v>10.1811689535954</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-0.91414599591021695</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3.9779368936156096</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="9">
+        <v>-0.92922296359575984</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-0.18390177263246901</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1.9424470222992449</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-0.41435237650715206</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.39161330000000127</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1.0228388000000006</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9">
+        <v>7.8799684999999968</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9">
+        <v>12.615308799999999</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9">
+        <v>11.9795499999999</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="9">
+        <v>55.463803200000001</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9">
+        <v>13.006922100000001</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="9">
+        <v>13.002388799999901</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="9">
+        <v>63.343771699999998</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="9">
+        <v>64.073653800000002</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="9">
+        <v>61.388509499999699</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="9">
+        <v>299.60408459999979</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3081,21 +3709,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3118,7 +3746,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2">
@@ -3135,7 +3763,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -3248,21 +3876,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3285,7 +3913,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2">
@@ -3302,7 +3930,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -3385,6 +4013,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058D141F1C3F5C242B55685702B7EB777" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d75cff0fef329b607ebe4e03804f5ea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d45fe7e5-9d2d-4ba9-8378-704906c9b2ae" xmlns:ns4="cb59bce2-4b1e-4fb8-a056-56b7ee907b7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="412dd8f402c6715c7ca69e68a0760b7f" ns3:_="" ns4:_="">
     <xsd:import namespace="d45fe7e5-9d2d-4ba9-8378-704906c9b2ae"/>
@@ -3569,15 +4206,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3585,6 +4213,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EBB6C3-F41B-4029-8711-70E210DF5353}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2856F85-AD05-4897-9F06-CD85EF802698}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3599,14 +4235,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EBB6C3-F41B-4029-8711-70E210DF5353}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/Threading Analysis - DDSSA.xlsx
+++ b/documentation/Threading Analysis - DDSSA.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John_\Desktop\capstone-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130C44B-D869-4C3E-8303-98BE7D4EC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4433CF7-7A72-4C2D-B0A7-A85FB75E2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9D00B310-DA03-4259-8009-DDC96E95BBE4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9D00B310-DA03-4259-8009-DDC96E95BBE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 0 - No Parrallelism" sheetId="4" r:id="rId1"/>
     <sheet name="Level 1 - Basic Parrallelism" sheetId="1" r:id="rId2"/>
-    <sheet name="Level 2 - Static Parrallelism" sheetId="5" r:id="rId3"/>
-    <sheet name="Level 3 - Full Parrallelism" sheetId="6" r:id="rId4"/>
+    <sheet name="Level 2 - CVE Parrallelism" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="24">
   <si>
     <t>Projects</t>
   </si>
@@ -104,6 +103,12 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Line number calculated using (gci -include *.py -recurse | select-string .).Count</t>
+  </si>
+  <si>
+    <t>Dependency number determined via a manual count</t>
   </si>
 </sst>
 </file>
@@ -172,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +188,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,8 +199,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,6 +1247,611 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Level 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Level 0 - No Parrallelism'!$A$2,'Level 0 - No Parrallelism'!$A$3,'Level 0 - No Parrallelism'!$A$4)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Data-Driven Software Security Assesment Tool</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZOIA Librarian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apache Airflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Level 0 - No Parrallelism'!$F$8,'Level 0 - No Parrallelism'!$I$8,'Level 0 - No Parrallelism'!$L$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.837975139999941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.310045840000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.988221780000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EF0-43E1-9045-C2C54A87A965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Level 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Level 0 - No Parrallelism'!$A$2,'Level 0 - No Parrallelism'!$A$3,'Level 0 - No Parrallelism'!$A$4)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Data-Driven Software Security Assesment Tool</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZOIA Librarian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apache Airflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Level 1 - Basic Parrallelism'!$F$8,'Level 1 - Basic Parrallelism'!$I$8,'Level 1 - Basic Parrallelism'!$L$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.81473076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.27770189999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.920816919999957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EF0-43E1-9045-C2C54A87A965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Level 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Level 2 - CVE Parrallelism'!$F$8,'Level 2 - CVE Parrallelism'!$I$8,'Level 2 - CVE Parrallelism'!$L$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9766152199999936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5649673599999971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.11378741999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9EF0-43E1-9045-C2C54A87A965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1694673855"/>
+        <c:axId val="1694670527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1694673855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Projects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694670527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1694670527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694673855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1319,6 +1932,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2325,20 +2978,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>126682</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2373,13 +3529,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2387,6 +3543,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7FB319-AAB3-43A4-A4F9-05809F7543F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC83465-6184-49F4-A19C-0C23740BF672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF1AE8B-15D5-4AAB-8E3A-87B1F85A11BC}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,23 +3934,29 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2219</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2775,6 +3980,12 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>13881</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -2798,6 +4009,12 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>243963</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
@@ -2818,6 +4035,11 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="E5" s="2">
         <v>3</v>
       </c>
@@ -2838,6 +4060,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="E6" s="2">
         <v>4</v>
       </c>
@@ -2892,303 +4119,297 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="8"/>
+      <c r="H10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="K10" s="8" t="s">
+      <c r="I10" s="9"/>
+      <c r="K10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>12.837975139999941</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>13.310045840000001</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <v>61.988221780000003</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>6.1407099013225774E-2</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>0.68271194289121306</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <v>0.78205121552279555</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>12.852055699999999</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>12.9315113</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="6">
         <v>61.807760399999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9" t="e">
+      <c r="F15" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="9" t="e">
+      <c r="I15" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="9" t="e">
+      <c r="L15" s="6" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>0.1373104476946331</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>1.5265903133557068</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>1.7487196797953097</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>1.8854159046100577E-2</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <v>2.3304779848314752</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="6">
         <v>3.0580205185034108</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>-2.9004110861904842</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <v>-2.1987104865845106</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="6">
         <v>2.9320479765440055E-2</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>-0.15017142890443907</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <v>0.48342708153789798</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="6">
         <v>-0.72700937333999838</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>0.29082120000010114</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>3.4196302999999997</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="6">
         <v>4.3266662999999994</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>12.684070499999899</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6">
         <v>11.890037299999999</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="6">
         <v>59.381199899999999</v>
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>12.974891700000001</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="6">
         <v>15.309667599999999</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="6">
         <v>63.707866199999998</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>64.189875699999703</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="6">
         <v>66.550229200000004</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="6">
         <v>309.94110890000002</v>
       </c>
     </row>
     <row r="24" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="7">
         <v>5</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <v>5</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3199,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B887EC98-BF57-4A7D-8138-A570C58097D4}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,7 +4434,7 @@
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3226,23 +4447,29 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2219</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3266,6 +4493,12 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>13881</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -3289,6 +4522,12 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>243963</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
@@ -3309,6 +4548,11 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="E5" s="2">
         <v>3</v>
       </c>
@@ -3329,6 +4573,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="E6" s="2">
         <v>4</v>
       </c>
@@ -3383,295 +4632,297 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="8"/>
+      <c r="H10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="K10" s="8" t="s">
+      <c r="I10" s="9"/>
+      <c r="K10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>12.81473076</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>12.27770189999994</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <v>59.920816919999957</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>6.8238697277942045E-2</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>0.18619888464564643</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <v>1.4269666396657912</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>12.866881599999999</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>12.183772399999899</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="6">
         <v>59.699238699999903</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9" t="e">
+      <c r="F15" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="9" t="e">
+      <c r="I15" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="9" t="e">
+      <c r="L15" s="6" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>0.1525863658095083</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>0.41635336340230727</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>3.1907944079171568</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>2.3282599030953081E-2</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <v>0.17335012321641374</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="6">
         <v>10.1811689535954</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>-0.91414599591021695</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <v>3.9779368936156096</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="6">
         <v>-0.92922296359575984</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>-0.18390177263246901</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <v>1.9424470222992449</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="6">
         <v>-0.41435237650715206</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>0.39161330000000127</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>1.0228388000000006</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="6">
         <v>7.8799684999999968</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>12.615308799999999</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6">
         <v>11.9795499999999</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="6">
         <v>55.463803200000001</v>
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>13.006922100000001</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="6">
         <v>13.002388799999901</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="6">
         <v>63.343771699999998</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>64.073653800000002</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="6">
         <v>61.388509499999699</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="6">
         <v>299.60408459999979</v>
       </c>
     </row>
     <row r="24" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="7">
         <v>5</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <v>5</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="7">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3680,10 +4931,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC11B60-30DA-4E93-8F3D-16A92EFC35DD}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,12 +4942,12 @@
     <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3709,23 +4960,29 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2219</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3749,266 +5006,440 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>13881</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>4.3367665000000004</v>
+      </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>7.7487914999999896</v>
+      </c>
       <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>47.053870699999997</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>243963</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>4.1925755000000002</v>
+      </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>7.1217512999999997</v>
+      </c>
       <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2">
+        <v>34.908511900000001</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>4.1870287999999896</v>
+      </c>
       <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>7.7928784999999996</v>
+      </c>
       <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>26.428764299999902</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>3.6645606999999898</v>
+      </c>
       <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>7.1072930999999997</v>
+      </c>
       <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>42.277630000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>3.5021445999999901</v>
+      </c>
       <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>8.0541224000000007</v>
+      </c>
       <c r="K7" s="2">
         <v>5</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>29.900160199999998</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" t="e">
+      <c r="F8">
         <f>AVERAGE(F3:F7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>3.9766152199999936</v>
+      </c>
+      <c r="I8">
         <f>AVERAGE(I3:I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" t="e">
+        <v>7.5649673599999971</v>
+      </c>
+      <c r="L8">
         <f>AVERAGE(L3:L7)</f>
-        <v>#DIV/0!</v>
+        <v>36.11378741999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="H10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="K10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.9766152199999936</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7.5649673599999971</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="6">
+        <v>36.11378741999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.16479108810359858</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.1911692521626725</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6">
+        <v>3.8179831237678976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4.1870287999999896</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7.7487914999999896</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="6">
+        <v>34.908511900000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.36848407508580333</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.4274674430435344</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="6">
+        <v>8.5372698016920125</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.13578051359183996</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.18272841486217734</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="6">
+        <v>72.884975666882383</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-2.4998374243612087</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="6">
+        <v>-2.6257286386420038</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="6">
+        <v>-1.8680949462667709</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-0.59209637712818664</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="6">
+        <v>-0.25519986930740396</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.26346081936176308</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.83462190000001035</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.94682930000000098</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="6">
+        <v>20.625106400000096</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3.5021445999999901</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="6">
+        <v>7.1072930999999997</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="6">
+        <v>26.428764299999902</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4.3367665000000004</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="6">
+        <v>8.0541224000000007</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="6">
+        <v>47.053870699999997</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6">
+        <v>19.883076099999968</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="6">
+        <v>37.824836799999986</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="6">
+        <v>180.56893709999989</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DD0A4B-E74F-4134-8BC7-3DDA7A36223B}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="H1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2">
-        <v>3</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" t="e">
-        <f>AVERAGE(F3:F7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
-        <f>AVERAGE(I3:I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" t="e">
-        <f>AVERAGE(L3:L7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/documentation/Threading Analysis - DDSSA.xlsx
+++ b/documentation/Threading Analysis - DDSSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John_\Desktop\capstone-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4433CF7-7A72-4C2D-B0A7-A85FB75E2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5371F52-C6AF-4D83-A72E-EF071ABB4483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9D00B310-DA03-4259-8009-DDC96E95BBE4}"/>
   </bookViews>
@@ -296,8 +296,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -306,29 +307,15 @@
             <c:v>Level 0</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>('Level 0 - No Parrallelism'!$A$2,'Level 0 - No Parrallelism'!$A$3,'Level 0 - No Parrallelism'!$A$4)</c:f>
@@ -364,7 +351,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C48-495F-9124-8230AC0FA110}"/>
@@ -379,11 +365,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1694673855"/>
         <c:axId val="1694670527"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1694673855"/>
         <c:scaling>
@@ -774,8 +759,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -784,29 +770,15 @@
             <c:v>Level 0</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>('Level 0 - No Parrallelism'!$A$2,'Level 0 - No Parrallelism'!$A$3,'Level 0 - No Parrallelism'!$A$4)</c:f>
@@ -842,7 +814,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3311-4B50-A4AA-F13648ADFEBB}"/>
@@ -856,29 +827,15 @@
             <c:v>Level 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>('Level 0 - No Parrallelism'!$A$2,'Level 0 - No Parrallelism'!$A$3,'Level 0 - No Parrallelism'!$A$4)</c:f>
@@ -914,7 +871,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3311-4B50-A4AA-F13648ADFEBB}"/>
@@ -929,11 +885,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1694673855"/>
         <c:axId val="1694670527"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1694673855"/>
         <c:scaling>
@@ -1324,8 +1279,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1334,29 +1290,15 @@
             <c:v>Level 0</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>('Level 0 - No Parrallelism'!$A$2,'Level 0 - No Parrallelism'!$A$3,'Level 0 - No Parrallelism'!$A$4)</c:f>
@@ -1392,7 +1334,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9EF0-43E1-9045-C2C54A87A965}"/>
@@ -1406,29 +1347,15 @@
             <c:v>Level 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>('Level 0 - No Parrallelism'!$A$2,'Level 0 - No Parrallelism'!$A$3,'Level 0 - No Parrallelism'!$A$4)</c:f>
@@ -1464,7 +1391,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9EF0-43E1-9045-C2C54A87A965}"/>
@@ -1478,29 +1404,15 @@
             <c:v>Level 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>('Level 2 - CVE Parrallelism'!$F$8,'Level 2 - CVE Parrallelism'!$I$8,'Level 2 - CVE Parrallelism'!$L$8)</c:f>
@@ -1519,7 +1431,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9EF0-43E1-9045-C2C54A87A965}"/>
@@ -1534,11 +1445,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1694673855"/>
         <c:axId val="1694670527"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1694673855"/>
         <c:scaling>
@@ -4402,14 +4312,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4915,14 +4825,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5428,14 +5338,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5444,15 +5354,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058D141F1C3F5C242B55685702B7EB777" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d75cff0fef329b607ebe4e03804f5ea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d45fe7e5-9d2d-4ba9-8378-704906c9b2ae" xmlns:ns4="cb59bce2-4b1e-4fb8-a056-56b7ee907b7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="412dd8f402c6715c7ca69e68a0760b7f" ns3:_="" ns4:_="">
     <xsd:import namespace="d45fe7e5-9d2d-4ba9-8378-704906c9b2ae"/>
@@ -5637,6 +5538,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5644,14 +5554,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EBB6C3-F41B-4029-8711-70E210DF5353}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2856F85-AD05-4897-9F06-CD85EF802698}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5666,6 +5568,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EBB6C3-F41B-4029-8711-70E210DF5353}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
